--- a/Benchmark/Knowledge Objectives/模型评估结果_最终版.xlsx
+++ b/Benchmark/Knowledge Objectives/模型评估结果_最终版.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,15 +482,20 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>DentalMind_o1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>qwen-max</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>GPT3turbo</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>deepseek</t>
         </is>
@@ -524,15 +529,18 @@
         <v>0.7335</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.8651</v>
       </c>
       <c r="J2" t="n">
+        <v>0.6141</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.838</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.4218</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.7766999999999999</v>
       </c>
     </row>
@@ -564,15 +572,18 @@
         <v>0.6823</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.8336</v>
       </c>
       <c r="J3" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.8013</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.3869</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.7385</v>
       </c>
     </row>
@@ -604,15 +615,18 @@
         <v>0.6823</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.8336</v>
       </c>
       <c r="J4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.8013</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.3869</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.7385</v>
       </c>
     </row>
@@ -644,15 +658,18 @@
         <v>0.7353</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.9471000000000001</v>
       </c>
       <c r="J5" t="n">
+        <v>0.5706</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.9059</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.3941</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.8471</v>
       </c>
     </row>
@@ -684,15 +701,18 @@
         <v>0.5175999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.8941</v>
       </c>
       <c r="J6" t="n">
+        <v>0.4353</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.7294</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>0.2588</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>0.6353</v>
       </c>
     </row>
@@ -724,15 +744,18 @@
         <v>0.7055</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.8253</v>
       </c>
       <c r="J7" t="n">
+        <v>0.5993000000000001</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.839</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.3733</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.7534</v>
       </c>
     </row>
@@ -764,15 +787,18 @@
         <v>0.716</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.8272</v>
       </c>
       <c r="J8" t="n">
+        <v>0.5778</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.7901</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0.442</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.7309</v>
       </c>
     </row>
@@ -804,15 +830,18 @@
         <v>0.5955</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.7865</v>
       </c>
       <c r="J9" t="n">
+        <v>0.4719</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.7753</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>0.3371</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>0.6854</v>
       </c>
     </row>
@@ -844,15 +873,18 @@
         <v>0.8034</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.8974</v>
       </c>
       <c r="J10" t="n">
+        <v>0.7521</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.8974</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>0.4872</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>0.906</v>
       </c>
     </row>
@@ -884,15 +916,18 @@
         <v>0.6949</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.8289</v>
       </c>
       <c r="J11" t="n">
+        <v>0.5891</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.7989000000000001</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>0.3898</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>0.7478</v>
       </c>
     </row>
@@ -924,15 +959,18 @@
         <v>0.6068</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.7909</v>
       </c>
       <c r="J12" t="n">
+        <v>0.5159</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.7727000000000001</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>0.3182</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>0.6591</v>
       </c>
     </row>
@@ -964,15 +1002,18 @@
         <v>0.7778</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.9444</v>
       </c>
       <c r="J13" t="n">
+        <v>0.5833</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.75</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>0.4722</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>0.8611</v>
       </c>
     </row>
@@ -1004,15 +1045,18 @@
         <v>0.6865</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.8054</v>
       </c>
       <c r="J14" t="n">
+        <v>0.5676</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.7405</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>0.4378</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>0.7351</v>
       </c>
     </row>
@@ -1044,15 +1088,18 @@
         <v>0.8732</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.9487</v>
       </c>
       <c r="J15" t="n">
+        <v>0.7395</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.9393</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>0.5169</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>0.8799</v>
       </c>
     </row>
@@ -1084,15 +1131,18 @@
         <v>0.8861</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.9581</v>
       </c>
       <c r="J16" t="n">
+        <v>0.7232</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.9581</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>0.493</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>0.8977000000000001</v>
       </c>
     </row>
@@ -1124,15 +1174,18 @@
         <v>0.8344</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.9298999999999999</v>
       </c>
       <c r="J17" t="n">
+        <v>0.6433</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.9363</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>0.5032</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>0.8599</v>
       </c>
     </row>
@@ -1164,15 +1217,18 @@
         <v>0.9785</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.9785</v>
       </c>
       <c r="J18" t="n">
+        <v>0.7849</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.9892</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>0.5806</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>0.9355</v>
       </c>
     </row>
@@ -1204,15 +1260,18 @@
         <v>0.9155</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.9859</v>
       </c>
       <c r="J19" t="n">
+        <v>0.7746</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.9577</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>0.493</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>0.9296</v>
       </c>
     </row>
@@ -1244,15 +1303,18 @@
         <v>0.8624000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.9633</v>
       </c>
       <c r="J20" t="n">
+        <v>0.7523</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.9633</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>0.4037</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>0.8991</v>
       </c>
     </row>
@@ -1284,15 +1346,18 @@
         <v>0.8552999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.9357</v>
       </c>
       <c r="J21" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.9132</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>0.5498</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>0.8552999999999999</v>
       </c>
     </row>
@@ -1324,15 +1389,18 @@
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
+        <v>0.7143</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.8571</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>0.7143</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>0.8571</v>
       </c>
     </row>
@@ -1364,15 +1432,18 @@
         <v>0.869</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.9448</v>
       </c>
       <c r="J23" t="n">
+        <v>0.7793</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.931</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>0.531</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>0.8828</v>
       </c>
     </row>
@@ -1404,15 +1475,18 @@
         <v>0.8537</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.9268</v>
       </c>
       <c r="J24" t="n">
+        <v>0.7073</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.878</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>0.5854</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>0.7561</v>
       </c>
     </row>
@@ -1444,15 +1518,18 @@
         <v>0.9048</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
+        <v>0.8095</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.9524</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>0.4286</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>0.9048</v>
       </c>
     </row>
@@ -1484,15 +1561,18 @@
         <v>0.7692</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.9231</v>
       </c>
       <c r="J26" t="n">
+        <v>0.5769</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.8462</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>0.4231</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>0.7308</v>
       </c>
     </row>
@@ -1524,15 +1604,18 @@
         <v>0.831</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.9014</v>
       </c>
       <c r="J27" t="n">
+        <v>0.8169</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.9155</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>0.6338</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>0.8873</v>
       </c>
     </row>
@@ -1564,15 +1647,18 @@
         <v>0.8476</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.9451000000000001</v>
       </c>
       <c r="J28" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.9146</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>0.5</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>0.8659</v>
       </c>
     </row>

--- a/Benchmark/Knowledge Objectives/模型评估结果_最终版.xlsx
+++ b/Benchmark/Knowledge Objectives/模型评估结果_最终版.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,57 +447,62 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ChatGLM</t>
+          <t>GPT-4-turbo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>GPT-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>deepseek-v3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>deepseek-r1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Qwen-max</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Qwen-plus</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>QWen2.5-7b-instruct</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ChatGLM-4</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>XunfeiSpark</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>QWenplus</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>DentalMind_base</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>GPT4turbo</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>QWen25_7b</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>deepseek_r1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>DentalMind_o1</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>qwen-max</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>GPT3turbo</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>deepseek</t>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>DentalMind_o1+GraphRAG</t>
         </is>
       </c>
     </row>
@@ -511,38 +516,39 @@
         <v>3291</v>
       </c>
       <c r="C2" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4218</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7766999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8651</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.838</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8779</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7335</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.7129</v>
       </c>
-      <c r="D2" t="n">
+      <c r="K2" t="n">
         <v>0.5971</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.8779</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
         <v>0.7326</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7335</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.8651</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>0.6141</v>
       </c>
-      <c r="K2" t="n">
-        <v>0.838</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.4218</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.7766999999999999</v>
-      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -554,38 +560,39 @@
         <v>2386</v>
       </c>
       <c r="C3" t="n">
+        <v>0.5675</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3869</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7385</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8336</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8013</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8525</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6823</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.6614</v>
       </c>
-      <c r="D3" t="n">
+      <c r="K3" t="n">
         <v>0.5339</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.8525</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="L3" t="n">
         <v>0.6785</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.5675</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6823</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.8336</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
         <v>0.57</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.8013</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.3869</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.7385</v>
-      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -597,38 +604,39 @@
         <v>2386</v>
       </c>
       <c r="C4" t="n">
+        <v>0.5675</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3869</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7385</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8336</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8013</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8525</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6823</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.6614</v>
       </c>
-      <c r="D4" t="n">
+      <c r="K4" t="n">
         <v>0.5339</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.8525</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="L4" t="n">
         <v>0.6785</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.5675</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6823</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.8336</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>0.57</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.8013</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.3869</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.7385</v>
-      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -640,38 +648,39 @@
         <v>170</v>
       </c>
       <c r="C5" t="n">
+        <v>0.6235000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3941</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8471</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9471000000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9059</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7353</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.7529</v>
       </c>
-      <c r="D5" t="n">
+      <c r="K5" t="n">
         <v>0.4941</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="L5" t="n">
         <v>0.7765</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.6235000000000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.7353</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9471000000000001</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>0.5706</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.9059</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.3941</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8471</v>
-      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -683,38 +692,39 @@
         <v>85</v>
       </c>
       <c r="C6" t="n">
+        <v>0.3412</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2588</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6353</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8941</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.7294</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.7882</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5175999999999999</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.4824</v>
       </c>
-      <c r="D6" t="n">
+      <c r="K6" t="n">
         <v>0.3882</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.7882</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="L6" t="n">
         <v>0.5294</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.3412</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5175999999999999</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.8941</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
         <v>0.4353</v>
       </c>
-      <c r="K6" t="n">
-        <v>0.7294</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.2588</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.6353</v>
-      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -726,38 +736,39 @@
         <v>292</v>
       </c>
       <c r="C7" t="n">
+        <v>0.6027</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3733</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7534</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8253</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.7055</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.6918</v>
       </c>
-      <c r="D7" t="n">
+      <c r="K7" t="n">
         <v>0.5856</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.863</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="L7" t="n">
         <v>0.6918</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.6027</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.7055</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.8253</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="M7" t="n">
         <v>0.5993000000000001</v>
       </c>
-      <c r="K7" t="n">
-        <v>0.839</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.3733</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.7534</v>
-      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -769,38 +780,39 @@
         <v>405</v>
       </c>
       <c r="C8" t="n">
+        <v>0.6247</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7309</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8272</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7901</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.6642</v>
       </c>
-      <c r="D8" t="n">
+      <c r="K8" t="n">
         <v>0.5728</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="L8" t="n">
         <v>0.6864</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.6247</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.716</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.8272</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
         <v>0.5778</v>
       </c>
-      <c r="K8" t="n">
-        <v>0.7901</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.7309</v>
-      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -812,38 +824,39 @@
         <v>89</v>
       </c>
       <c r="C9" t="n">
+        <v>0.5843</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3371</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6854</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7865</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7753</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.7865</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.6516999999999999</v>
       </c>
-      <c r="D9" t="n">
+      <c r="K9" t="n">
         <v>0.4157</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.7865</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="L9" t="n">
         <v>0.618</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.5843</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.7865</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="M9" t="n">
         <v>0.4719</v>
       </c>
-      <c r="K9" t="n">
-        <v>0.7753</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.3371</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.6854</v>
-      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -855,38 +868,39 @@
         <v>117</v>
       </c>
       <c r="C10" t="n">
+        <v>0.7265</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4872</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8974</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.8974</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9573</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.8034</v>
       </c>
-      <c r="D10" t="n">
+      <c r="J10" t="n">
+        <v>0.8034</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.6923</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.9573</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="L10" t="n">
         <v>0.7778</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.7265</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.8034</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.8974</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="M10" t="n">
         <v>0.7521</v>
       </c>
-      <c r="K10" t="n">
-        <v>0.8974</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.4872</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.906</v>
-      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -898,38 +912,39 @@
         <v>567</v>
       </c>
       <c r="C11" t="n">
+        <v>0.5767</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3898</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7478</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8289</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.7989000000000001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6949</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.6808</v>
       </c>
-      <c r="D11" t="n">
+      <c r="K11" t="n">
         <v>0.522</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.873</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="L11" t="n">
         <v>0.7037</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.5767</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.6949</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.8289</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="M11" t="n">
         <v>0.5891</v>
       </c>
-      <c r="K11" t="n">
-        <v>0.7989000000000001</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.3898</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7478</v>
-      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -941,38 +956,39 @@
         <v>440</v>
       </c>
       <c r="C12" t="n">
+        <v>0.4477</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3182</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6591</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.7909</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.7727000000000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8364</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.6068</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.5864</v>
       </c>
-      <c r="D12" t="n">
+      <c r="K12" t="n">
         <v>0.5091</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.8364</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="L12" t="n">
         <v>0.6</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.4477</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.6068</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.7909</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="M12" t="n">
         <v>0.5159</v>
       </c>
-      <c r="K12" t="n">
-        <v>0.7727000000000001</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.3182</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.6591</v>
-      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -984,38 +1000,39 @@
         <v>36</v>
       </c>
       <c r="C13" t="n">
+        <v>0.6111</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4722</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9444</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8889</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7778</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.6944</v>
       </c>
-      <c r="D13" t="n">
+      <c r="K13" t="n">
         <v>0.5278</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.8889</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="L13" t="n">
         <v>0.8333</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.6111</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.7778</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.9444</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="M13" t="n">
         <v>0.5833</v>
       </c>
-      <c r="K13" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.4722</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.8611</v>
-      </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1027,38 +1044,39 @@
         <v>185</v>
       </c>
       <c r="C14" t="n">
+        <v>0.5784</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4378</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7351</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8054</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.7405</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.7784</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6865</v>
+      </c>
+      <c r="J14" t="n">
         <v>0.6324</v>
       </c>
-      <c r="D14" t="n">
+      <c r="K14" t="n">
         <v>0.5243</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.7784</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="L14" t="n">
         <v>0.6649</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.5784</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.6865</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.8054</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="M14" t="n">
         <v>0.5676</v>
       </c>
-      <c r="K14" t="n">
-        <v>0.7405</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.4378</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.7351</v>
-      </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1070,38 +1088,39 @@
         <v>741</v>
       </c>
       <c r="C15" t="n">
+        <v>0.7814</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5169</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8799</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9487</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9393</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9474</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.8732</v>
+      </c>
+      <c r="J15" t="n">
         <v>0.857</v>
       </c>
-      <c r="D15" t="n">
+      <c r="K15" t="n">
         <v>0.7638</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.9474</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="L15" t="n">
         <v>0.8826000000000001</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.7814</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.8732</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.9487</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="M15" t="n">
         <v>0.7395</v>
       </c>
-      <c r="K15" t="n">
-        <v>0.9393</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.5169</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.8799</v>
-      </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1113,38 +1132,39 @@
         <v>430</v>
       </c>
       <c r="C16" t="n">
+        <v>0.8279</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8977000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9581</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9581</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9628</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8861</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.8651</v>
       </c>
-      <c r="D16" t="n">
+      <c r="K16" t="n">
         <v>0.7907</v>
       </c>
-      <c r="E16" t="n">
-        <v>0.9628</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="L16" t="n">
         <v>0.886</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.8279</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.8861</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.9581</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="M16" t="n">
         <v>0.7232</v>
       </c>
-      <c r="K16" t="n">
-        <v>0.9581</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.493</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8977000000000001</v>
-      </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1156,38 +1176,39 @@
         <v>157</v>
       </c>
       <c r="C17" t="n">
+        <v>0.8153</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5032</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8599</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9298999999999999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9363</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9172</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8344</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.7771</v>
       </c>
-      <c r="D17" t="n">
+      <c r="K17" t="n">
         <v>0.8217</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.9172</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="L17" t="n">
         <v>0.8344</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.8153</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.8344</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.9298999999999999</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="M17" t="n">
         <v>0.6433</v>
       </c>
-      <c r="K17" t="n">
-        <v>0.9363</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.5032</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.8599</v>
-      </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1199,38 +1220,39 @@
         <v>93</v>
       </c>
       <c r="C18" t="n">
-        <v>0.914</v>
+        <v>0.8602</v>
       </c>
       <c r="D18" t="n">
-        <v>0.828</v>
+        <v>0.5806</v>
       </c>
       <c r="E18" t="n">
+        <v>0.9355</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9785</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.9892</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.9677</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.8602</v>
-      </c>
       <c r="H18" t="n">
-        <v>0.9785</v>
+        <v>0.9892</v>
       </c>
       <c r="I18" t="n">
         <v>0.9785</v>
       </c>
       <c r="J18" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.9677</v>
+      </c>
+      <c r="M18" t="n">
         <v>0.7849</v>
       </c>
-      <c r="K18" t="n">
-        <v>0.9892</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.5806</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9355</v>
-      </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1242,38 +1264,39 @@
         <v>71</v>
       </c>
       <c r="C19" t="n">
+        <v>0.9014</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9296</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9859</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9577</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9718</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9155</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.8873</v>
       </c>
-      <c r="D19" t="n">
+      <c r="K19" t="n">
         <v>0.8169</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.9718</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="L19" t="n">
         <v>0.8732</v>
       </c>
-      <c r="G19" t="n">
-        <v>0.9014</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.9155</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.9859</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="M19" t="n">
         <v>0.7746</v>
       </c>
-      <c r="K19" t="n">
-        <v>0.9577</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.493</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9296</v>
-      </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1285,38 +1308,39 @@
         <v>109</v>
       </c>
       <c r="C20" t="n">
+        <v>0.7706</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.4037</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8991</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9633</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9633</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8624000000000001</v>
+      </c>
+      <c r="J20" t="n">
         <v>0.9358</v>
       </c>
-      <c r="D20" t="n">
+      <c r="K20" t="n">
         <v>0.6972</v>
       </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="L20" t="n">
         <v>0.8991</v>
       </c>
-      <c r="G20" t="n">
-        <v>0.7706</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.8624000000000001</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.9633</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="M20" t="n">
         <v>0.7523</v>
       </c>
-      <c r="K20" t="n">
-        <v>0.9633</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.4037</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8991</v>
-      </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1328,38 +1352,39 @@
         <v>311</v>
       </c>
       <c r="C21" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5498</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8552999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9357</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9132</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8552999999999999</v>
+      </c>
+      <c r="J21" t="n">
         <v>0.8457</v>
       </c>
-      <c r="D21" t="n">
+      <c r="K21" t="n">
         <v>0.7267</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.926</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="L21" t="n">
         <v>0.8778</v>
       </c>
-      <c r="G21" t="n">
-        <v>0.717</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.8552999999999999</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.9357</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="M21" t="n">
         <v>0.762</v>
       </c>
-      <c r="K21" t="n">
-        <v>0.9132</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.5498</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8552999999999999</v>
-      </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1374,19 +1399,19 @@
         <v>0.7143</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5714</v>
+        <v>0.7143</v>
       </c>
       <c r="E22" t="n">
         <v>0.8571</v>
       </c>
       <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.8571</v>
       </c>
-      <c r="G22" t="n">
-        <v>0.7143</v>
-      </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0.8571</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -1395,14 +1420,15 @@
         <v>0.7143</v>
       </c>
       <c r="K22" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="L22" t="n">
         <v>0.8571</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>0.7143</v>
       </c>
-      <c r="M22" t="n">
-        <v>0.8571</v>
-      </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1414,38 +1440,39 @@
         <v>145</v>
       </c>
       <c r="C23" t="n">
+        <v>0.7517</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8828</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9448</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9517</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="J23" t="n">
         <v>0.8966</v>
       </c>
-      <c r="D23" t="n">
+      <c r="K23" t="n">
         <v>0.7586000000000001</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.9517</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="L23" t="n">
         <v>0.8897</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.7517</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.869</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.9448</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="M23" t="n">
         <v>0.7793</v>
       </c>
-      <c r="K23" t="n">
-        <v>0.931</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.531</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8828</v>
-      </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1457,38 +1484,39 @@
         <v>41</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9024</v>
+        <v>0.6341</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7073</v>
+        <v>0.5854</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8537</v>
+        <v>0.7561</v>
       </c>
       <c r="F24" t="n">
+        <v>0.9268</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.878</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.6341</v>
       </c>
       <c r="H24" t="n">
         <v>0.8537</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9268</v>
+        <v>0.8537</v>
       </c>
       <c r="J24" t="n">
+        <v>0.9024</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.7073</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>0.878</v>
       </c>
-      <c r="L24" t="n">
-        <v>0.5854</v>
-      </c>
       <c r="M24" t="n">
-        <v>0.7561</v>
-      </c>
+        <v>0.7073</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1500,38 +1528,39 @@
         <v>21</v>
       </c>
       <c r="C25" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="E25" t="n">
         <v>0.9048</v>
       </c>
-      <c r="D25" t="n">
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9524</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9524</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9048</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.9048</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.7619</v>
       </c>
-      <c r="E25" t="n">
-        <v>0.9524</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="L25" t="n">
         <v>0.9048</v>
       </c>
-      <c r="G25" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.9048</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="M25" t="n">
         <v>0.8095</v>
       </c>
-      <c r="K25" t="n">
-        <v>0.9524</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9048</v>
-      </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1543,38 +1572,39 @@
         <v>26</v>
       </c>
       <c r="C26" t="n">
+        <v>0.5769</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.7308</v>
       </c>
-      <c r="D26" t="n">
+      <c r="F26" t="n">
+        <v>0.9231</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.8462</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.9231</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.7692</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.7308</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.5769</v>
       </c>
-      <c r="E26" t="n">
-        <v>0.9231</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="L26" t="n">
         <v>0.8846000000000001</v>
       </c>
-      <c r="G26" t="n">
+      <c r="M26" t="n">
         <v>0.5769</v>
       </c>
-      <c r="H26" t="n">
-        <v>0.7692</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.9231</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5769</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.8462</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.4231</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7308</v>
-      </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1586,38 +1616,39 @@
         <v>71</v>
       </c>
       <c r="C27" t="n">
+        <v>0.7606000000000001</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.6338</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8873</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9014</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9155</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9155</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="J27" t="n">
         <v>0.7465000000000001</v>
       </c>
-      <c r="D27" t="n">
+      <c r="K27" t="n">
         <v>0.7324000000000001</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.9155</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="L27" t="n">
         <v>0.8451</v>
       </c>
-      <c r="G27" t="n">
-        <v>0.7606000000000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.831</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.9014</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="M27" t="n">
         <v>0.8169</v>
       </c>
-      <c r="K27" t="n">
-        <v>0.9155</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.6338</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.8873</v>
-      </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -1629,38 +1660,39 @@
         <v>164</v>
       </c>
       <c r="C28" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.8659</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9451000000000001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9146</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9329</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8476</v>
+      </c>
+      <c r="J28" t="n">
         <v>0.8110000000000001</v>
       </c>
-      <c r="D28" t="n">
+      <c r="K28" t="n">
         <v>0.7622</v>
       </c>
-      <c r="E28" t="n">
-        <v>0.9329</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="L28" t="n">
         <v>0.8415</v>
       </c>
-      <c r="G28" t="n">
+      <c r="M28" t="n">
         <v>0.6889999999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0.8476</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.9451000000000001</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6889999999999999</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.9146</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8659</v>
-      </c>
+      <c r="N28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Benchmark/Knowledge Objectives/模型评估结果_最终版.xlsx
+++ b/Benchmark/Knowledge Objectives/模型评估结果_最终版.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,32 +477,72 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>QWen3-14B</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>QWen2.5-7b-instruct</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>QWen3-8B</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ChatGLM-4</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>XunfeiSpark</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>DentalMind_base</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>DentalMind_o1</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>DentalMind_o1+GraphRAG</t>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>DentalMind_graph</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>DeepSeek-R1-Distill-Qwen-7B</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>QWen25-Math-7B</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>DeepSeek-R1-Distill-Qwen-1.5B</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>QWen25-14B</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>DeepSeek-R1-Distill-Qwen-14B</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>DentalMind_graph_o1</t>
         </is>
       </c>
     </row>
@@ -519,7 +559,7 @@
         <v>0.6217</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4218</v>
+        <v>0.4196</v>
       </c>
       <c r="E2" t="n">
         <v>0.7766999999999999</v>
@@ -534,21 +574,47 @@
         <v>0.8779</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7335</v>
+        <v>0.7621</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7129</v>
+        <v>0.7308</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5971</v>
+        <v>0.6952</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7326</v>
+        <v>0.7083</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6141</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+        <v>0.5959</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.7463</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.5178</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.7764</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.3519</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.2391</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.7369</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.6974</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.5424</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -578,21 +644,47 @@
         <v>0.8525</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6823</v>
+        <v>0.7087</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6614</v>
+        <v>0.679</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5339</v>
+        <v>0.6333</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6785</v>
+        <v>0.6572</v>
       </c>
       <c r="M3" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0.5335</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6962</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.4681</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.7343</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.3194</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2301</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.6853</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.6354</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.5009</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -622,21 +714,47 @@
         <v>0.8525</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6823</v>
+        <v>0.7087</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6614</v>
+        <v>0.679</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5339</v>
+        <v>0.6333</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6785</v>
+        <v>0.6572</v>
       </c>
       <c r="M4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0.5335</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.6962</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.4681</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.7343</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.3194</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2301</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.6853</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.6354</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.5009</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -666,21 +784,47 @@
         <v>0.9</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7353</v>
+        <v>0.7824</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7529</v>
+        <v>0.7176</v>
       </c>
       <c r="K5" t="n">
+        <v>0.7059</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.7471</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.4941</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
+        <v>0.7471</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.4529</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.8471</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3765</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0059</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.2647</v>
+      </c>
+      <c r="T5" t="n">
         <v>0.7765</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.5706</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>0.6706</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.5941</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -710,21 +854,47 @@
         <v>0.7882</v>
       </c>
       <c r="I6" t="n">
+        <v>0.6353</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.5175999999999999</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.4824</v>
-      </c>
       <c r="K6" t="n">
+        <v>0.4941</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4706</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.3882</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.5294</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.4353</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>0.6235000000000001</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.3294</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.7529</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.1765</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.2118</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5647</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.5175999999999999</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.3529</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -754,21 +924,47 @@
         <v>0.863</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7055</v>
+        <v>0.7226</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6918</v>
+        <v>0.7020999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5856</v>
+        <v>0.6404</v>
       </c>
       <c r="L7" t="n">
         <v>0.6918</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0.5856</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.5103</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.7534</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.3014</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.2295</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.6815</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.6781</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.5959</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -798,21 +994,47 @@
         <v>0.842</v>
       </c>
       <c r="I8" t="n">
-        <v>0.716</v>
+        <v>0.7383</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6642</v>
+        <v>0.7111</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5728</v>
+        <v>0.642</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6864</v>
+        <v>0.6593</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5778</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0.5704</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.6914</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.4938</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.7457</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.3235</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.2123</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.7136</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.6815</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.5259</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -842,21 +1064,47 @@
         <v>0.7865</v>
       </c>
       <c r="I9" t="n">
+        <v>0.6067</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.5955</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.6516999999999999</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.4157</v>
       </c>
-      <c r="L9" t="n">
-        <v>0.618</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
+        <v>0.6516999999999999</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.6966</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.2921</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.1461</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.6292</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.4494</v>
+      </c>
+      <c r="V9" t="n">
         <v>0.4719</v>
       </c>
-      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -886,21 +1134,47 @@
         <v>0.9573</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8034</v>
+        <v>0.8547</v>
       </c>
       <c r="J10" t="n">
         <v>0.8034</v>
       </c>
       <c r="K10" t="n">
+        <v>0.7692</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8034</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.6923</v>
       </c>
-      <c r="L10" t="n">
-        <v>0.7778</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.7521</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>0.7863</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.6752</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.8376</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.3675</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.2137</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.7692</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.6325</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -930,21 +1204,47 @@
         <v>0.873</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6949</v>
+        <v>0.7319</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6808</v>
+        <v>0.6931</v>
       </c>
       <c r="K11" t="n">
+        <v>0.6455</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.6772</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.522</v>
       </c>
-      <c r="L11" t="n">
-        <v>0.7037</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.5891</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>0.7284</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.4868</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.7566000000000001</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.3104</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.2205</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.7143</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.6508</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.4974</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -974,21 +1274,47 @@
         <v>0.8364</v>
       </c>
       <c r="I12" t="n">
+        <v>0.6591</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.6068</v>
       </c>
-      <c r="J12" t="n">
-        <v>0.5864</v>
-      </c>
       <c r="K12" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.5841</v>
+      </c>
+      <c r="M12" t="n">
         <v>0.5091</v>
       </c>
-      <c r="L12" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.5159</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>0.6159</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.6136</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.5409</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.3864</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1018,21 +1344,47 @@
         <v>0.8889</v>
       </c>
       <c r="I13" t="n">
+        <v>0.6944</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.7778</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>0.6944</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
+        <v>0.6944</v>
+      </c>
+      <c r="M13" t="n">
         <v>0.5278</v>
       </c>
-      <c r="L13" t="n">
-        <v>0.8333</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.5833</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>0.8056</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.4722</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.8889</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.2778</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.6944</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.6389</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.6389</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1062,21 +1414,47 @@
         <v>0.7784</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6865</v>
+        <v>0.5946</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6324</v>
+        <v>0.6811</v>
       </c>
       <c r="K14" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.6162</v>
+      </c>
+      <c r="M14" t="n">
         <v>0.5243</v>
       </c>
-      <c r="L14" t="n">
-        <v>0.6649</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.5676</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>0.6811</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.4486</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.7081</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.3568</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.2486</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.6703</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.6703</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.4649</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1091,7 +1469,7 @@
         <v>0.7814</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5169</v>
+        <v>0.5074</v>
       </c>
       <c r="E15" t="n">
         <v>0.8799</v>
@@ -1106,21 +1484,47 @@
         <v>0.9474</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8732</v>
+        <v>0.9123</v>
       </c>
       <c r="J15" t="n">
-        <v>0.857</v>
+        <v>0.8718</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7638</v>
+        <v>0.8663999999999999</v>
       </c>
       <c r="L15" t="n">
+        <v>0.8516</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.7598</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.8853</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.6532</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.8961</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.2443</v>
+      </c>
+      <c r="T15" t="n">
         <v>0.8826000000000001</v>
       </c>
-      <c r="M15" t="n">
-        <v>0.7395</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>0.8651</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.6599</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1135,7 +1539,7 @@
         <v>0.8279</v>
       </c>
       <c r="D16" t="n">
-        <v>0.493</v>
+        <v>0.4791</v>
       </c>
       <c r="E16" t="n">
         <v>0.8977000000000001</v>
@@ -1150,21 +1554,47 @@
         <v>0.9628</v>
       </c>
       <c r="I16" t="n">
+        <v>0.9372</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.8861</v>
       </c>
-      <c r="J16" t="n">
-        <v>0.8651</v>
-      </c>
       <c r="K16" t="n">
+        <v>0.8721</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.8605</v>
+      </c>
+      <c r="M16" t="n">
         <v>0.7907</v>
       </c>
-      <c r="L16" t="n">
-        <v>0.886</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.7232</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>0.8954</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.6535</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.9116</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3837</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.2256</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.9023</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.8628</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.6488</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1179,7 +1609,7 @@
         <v>0.8153</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5032</v>
+        <v>0.4777</v>
       </c>
       <c r="E17" t="n">
         <v>0.8599</v>
@@ -1194,21 +1624,47 @@
         <v>0.9172</v>
       </c>
       <c r="I17" t="n">
+        <v>0.8981</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.8344</v>
       </c>
-      <c r="J17" t="n">
-        <v>0.7771</v>
-      </c>
       <c r="K17" t="n">
+        <v>0.8408</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.7643</v>
+      </c>
+      <c r="M17" t="n">
         <v>0.8217</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.8344</v>
       </c>
-      <c r="M17" t="n">
-        <v>0.6433</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0191</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.2739</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.8344</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.8153</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.6178</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1238,21 +1694,47 @@
         <v>0.9892</v>
       </c>
       <c r="I18" t="n">
+        <v>0.9677</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.9785</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
+        <v>0.8925</v>
+      </c>
+      <c r="L18" t="n">
         <v>0.914</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.828</v>
       </c>
-      <c r="L18" t="n">
-        <v>0.9677</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.7849</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.7204</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.4194</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.2366</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.9032</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.6452</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1267,7 +1749,7 @@
         <v>0.9014</v>
       </c>
       <c r="D19" t="n">
-        <v>0.493</v>
+        <v>0.4648</v>
       </c>
       <c r="E19" t="n">
         <v>0.9296</v>
@@ -1282,21 +1764,47 @@
         <v>0.9718</v>
       </c>
       <c r="I19" t="n">
+        <v>0.9577</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.9155</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
+        <v>0.8732</v>
+      </c>
+      <c r="L19" t="n">
         <v>0.8873</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.8169</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.8732</v>
       </c>
-      <c r="M19" t="n">
-        <v>0.7746</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>0.7042</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.9014</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.4507</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.1972</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.9577</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.9014</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.7465000000000001</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1326,21 +1834,47 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
+        <v>0.9540999999999999</v>
+      </c>
+      <c r="J20" t="n">
         <v>0.8624000000000001</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
+        <v>0.8991</v>
+      </c>
+      <c r="L20" t="n">
         <v>0.9358</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.6972</v>
       </c>
-      <c r="L20" t="n">
-        <v>0.8991</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.7523</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.6606</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.2661</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.1651</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.9540999999999999</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.8716</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.633</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1355,7 +1889,7 @@
         <v>0.717</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5498</v>
+        <v>0.5466</v>
       </c>
       <c r="E21" t="n">
         <v>0.8552999999999999</v>
@@ -1370,21 +1904,47 @@
         <v>0.926</v>
       </c>
       <c r="I21" t="n">
+        <v>0.8778</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.8521</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.8586</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.8391999999999999</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.8714</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6528</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.8746</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.4502</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.2701</v>
+      </c>
+      <c r="T21" t="n">
         <v>0.8552999999999999</v>
       </c>
-      <c r="J21" t="n">
-        <v>0.8457</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.7267</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.8778</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.762</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>0.8682</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.6752</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1414,21 +1974,47 @@
         <v>0.8571</v>
       </c>
       <c r="I22" t="n">
+        <v>0.7143</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>0.7143</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
+        <v>0.7143</v>
+      </c>
+      <c r="M22" t="n">
         <v>0.5714</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.8571</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>0.7143</v>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.7143</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.7143</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1443,7 +2029,7 @@
         <v>0.7517</v>
       </c>
       <c r="D23" t="n">
-        <v>0.531</v>
+        <v>0.5241</v>
       </c>
       <c r="E23" t="n">
         <v>0.8828</v>
@@ -1458,21 +2044,47 @@
         <v>0.9517</v>
       </c>
       <c r="I23" t="n">
+        <v>0.9103</v>
+      </c>
+      <c r="J23" t="n">
         <v>0.869</v>
       </c>
-      <c r="J23" t="n">
-        <v>0.8966</v>
-      </c>
       <c r="K23" t="n">
-        <v>0.7586000000000001</v>
+        <v>0.8828</v>
       </c>
       <c r="L23" t="n">
         <v>0.8897</v>
       </c>
       <c r="M23" t="n">
-        <v>0.7793</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>0.7517</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.8828</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.6966</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.8759</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.2414</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.8966</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.8621</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.7171999999999999</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1502,21 +2114,47 @@
         <v>0.8537</v>
       </c>
       <c r="I24" t="n">
+        <v>0.9024</v>
+      </c>
+      <c r="J24" t="n">
         <v>0.8537</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
+        <v>0.8537</v>
+      </c>
+      <c r="L24" t="n">
         <v>0.9024</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.7073</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.878</v>
       </c>
       <c r="M24" t="n">
         <v>0.7073</v>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.6585</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.5122</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.2927</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.7317</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.6829</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1546,21 +2184,47 @@
         <v>0.9524</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9048</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0.9048</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7619</v>
+        <v>0.9524</v>
       </c>
       <c r="L25" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7143</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.5238</v>
+      </c>
+      <c r="P25" t="n">
         <v>0.9048</v>
       </c>
-      <c r="M25" t="n">
+      <c r="Q25" t="n">
+        <v>0.2857</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.09520000000000001</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.9524</v>
+      </c>
+      <c r="U25" t="n">
         <v>0.8095</v>
       </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="V25" t="n">
+        <v>0.5238</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1590,21 +2254,47 @@
         <v>0.9231</v>
       </c>
       <c r="I26" t="n">
+        <v>0.7308</v>
+      </c>
+      <c r="J26" t="n">
         <v>0.7692</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>0.7308</v>
       </c>
-      <c r="K26" t="n">
-        <v>0.5769</v>
-      </c>
       <c r="L26" t="n">
-        <v>0.8846000000000001</v>
+        <v>0.7308</v>
       </c>
       <c r="M26" t="n">
         <v>0.5769</v>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>0.8462</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.8462</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.3077</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1923</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.8462</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.9231</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.5385</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1637,18 +2327,44 @@
         <v>0.831</v>
       </c>
       <c r="J27" t="n">
+        <v>0.8169</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.8451</v>
+      </c>
+      <c r="L27" t="n">
         <v>0.7465000000000001</v>
       </c>
-      <c r="K27" t="n">
-        <v>0.7324000000000001</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.8451</v>
-      </c>
       <c r="M27" t="n">
-        <v>0.8169</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>0.7183</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.8592</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.6479</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.8732</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.6056</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.3662</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.8732</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.6761</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -1678,21 +2394,47 @@
         <v>0.9329</v>
       </c>
       <c r="I28" t="n">
+        <v>0.8598</v>
+      </c>
+      <c r="J28" t="n">
         <v>0.8476</v>
       </c>
-      <c r="J28" t="n">
-        <v>0.8110000000000001</v>
-      </c>
       <c r="K28" t="n">
+        <v>0.8232</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8048999999999999</v>
+      </c>
+      <c r="M28" t="n">
         <v>0.7622</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
+        <v>0.8476</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8476</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.5548999999999999</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.3476</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.8293</v>
+      </c>
+      <c r="U28" t="n">
         <v>0.8415</v>
       </c>
-      <c r="M28" t="n">
-        <v>0.6889999999999999</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="V28" t="n">
+        <v>0.6159</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
